--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Projetos\CaluladoraMultifuncional\CalculadoraMultifuncional\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9555" windowHeight="8010" activeTab="1"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Cáculo Férias" sheetId="1" r:id="rId3"/>
     <sheet name="Plan expl" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
     <author>Usuario</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +46,7 @@
     <author>Usuario</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +84,7 @@
     <author>Usuario</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1472,6 +1467,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,14 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1509,21 +1521,12 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1544,12 +1547,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1573,18 +1617,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1592,43 +1624,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1944,7 +1939,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1979,7 +1974,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2708,7 +2703,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2763,18 +2758,18 @@
         <v>58</v>
       </c>
       <c r="E2" s="84"/>
-      <c r="F2" s="219" t="s">
+      <c r="F2" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="220"/>
+      <c r="G2" s="213"/>
       <c r="H2" s="130"/>
       <c r="I2" s="131"/>
-      <c r="J2" s="223" t="s">
+      <c r="J2" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="225"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="216"/>
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2783,7 +2778,7 @@
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="182">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="69"/>
@@ -2792,7 +2787,7 @@
       </c>
       <c r="G3" s="104">
         <f>C11</f>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="100" t="s">
@@ -2818,20 +2813,20 @@
       </c>
       <c r="B4" s="152">
         <f>IF(AND(C3&gt;=0,C3&lt;=1212),K5,IF(AND(C3&lt;=2427.35,C3&gt;=1212.01),K6,IF(AND(C3&lt;=3641.03,C3&gt;=2427.36),K7,IF(AND(C3&lt;=7087.22,C3&gt;=3641.04),K8,K8))))</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C4" s="226" t="str">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="217" t="str">
         <f>IF(AND(C3&gt;=0,C3&lt;=1212),"Faixa 1",IF(AND(C3&lt;=2427.35,C3&gt;=1212.01),"Faixa 2",IF(AND(C3&lt;=3641.03,C3&gt;=2427.36),"Faixa 3",IF(AND(C3&lt;=7087.22,C3&gt;=3641.04),"Faixa 4","Faixa 4 - Teto INSS"))))</f>
-        <v>Faixa 1</v>
-      </c>
-      <c r="D4" s="227"/>
+        <v>Faixa 3</v>
+      </c>
+      <c r="D4" s="218"/>
       <c r="E4" s="69"/>
       <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="24">
         <f>IF(AND(G3&gt;0,G3&lt;=1212),G3*K5,IF(AND(G3&gt;=1212.01,G3&lt;=2427.35),M5+((G3-1212)*K6),IF(AND(G3&gt;=2427.36,G3&lt;=3641.03),M5+M6+((G3-2427.36)*K7),IF(AND(G3&gt;=3641.04,G3&lt;7087.22),M5+M6+M7+((G3-3641.03)*K8),IF(G3=7087.22,M5+M6+M7+((G3-7087.22)*K8),IF(G3&gt;7087.22,M5+M6+M7+M8,"Valor zerado"))))))</f>
-        <v>90</v>
+        <v>268.99680000000001</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="99"/>
@@ -2851,20 +2846,20 @@
       </c>
       <c r="B5" s="152">
         <f>IF(AND(C3&gt;=0,C3&lt;=1903.98),K14,IF(AND(C3&lt;=2826.65,C3&gt;=1903.99),K15,IF(AND(C3&lt;=3751.05,C3&gt;=2826.66),K16,IF(AND(C3&lt;=4664.68,C3&gt;=3751.06),K17,IF(AND(C3&gt;=4664.68),K18,K18)))))</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="226" t="str">
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="217" t="str">
         <f>IF(AND(C3&gt;=0,C3&lt;=1903.98),"Faixa 1",IF(AND(C3&lt;=2826.65,C3&gt;=1903.99),"Faixa 2",IF(AND(C3&lt;=3751.05,C3&gt;=2826.66),"Faixa 3",IF(AND(C3&lt;=4664.68,C3&gt;=3751.06),"Faixa 4",IF(AND(C3&gt;=4664.68),"Faixa 5","Utilizar Faixa 5")))))</f>
-        <v>Faixa 1</v>
-      </c>
-      <c r="D5" s="227"/>
+        <v>Faixa 3</v>
+      </c>
+      <c r="D5" s="218"/>
       <c r="E5" s="69"/>
       <c r="F5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="26">
         <f>G4</f>
-        <v>90</v>
+        <v>268.99680000000001</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="117">
@@ -2889,12 +2884,12 @@
         <v>44</v>
       </c>
       <c r="B6" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="155">
         <f>IF(B6&gt;0,B6*189.59,0)</f>
-        <v>189.59</v>
+        <v>0</v>
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="122"/>
@@ -2978,13 +2973,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="142">
-        <f>D9/2319.8</f>
-        <v>3.879644796965255E-2</v>
+        <f>D9/C11</f>
+        <v>8.9665599999999998E-2</v>
       </c>
       <c r="C9" s="111"/>
       <c r="D9" s="181">
         <f>G5</f>
-        <v>90</v>
+        <v>268.99680000000001</v>
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
@@ -3005,12 +3000,12 @@
       </c>
       <c r="B10" s="142">
         <f>D10/C11</f>
-        <v>0</v>
+        <v>4.1351160000000005E-2</v>
       </c>
       <c r="C10" s="111"/>
       <c r="D10" s="181">
         <f>IF(G15&gt;0,G15,0)</f>
-        <v>0</v>
+        <v>124.05348000000001</v>
       </c>
       <c r="E10" s="69"/>
       <c r="H10" s="96"/>
@@ -3028,21 +3023,21 @@
       <c r="B11" s="177"/>
       <c r="C11" s="178">
         <f>SUM(C3:C6)</f>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="179">
         <f>D9+D10</f>
-        <v>90</v>
+        <v>393.05028000000004</v>
       </c>
       <c r="E11" s="69"/>
       <c r="H11" s="15"/>
       <c r="I11" s="124"/>
-      <c r="J11" s="212" t="s">
+      <c r="J11" s="219" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="213"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="214"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="221"/>
       <c r="N11" s="121"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3050,16 +3045,16 @@
         <v>42</v>
       </c>
       <c r="B12" s="91"/>
-      <c r="C12" s="221">
+      <c r="C12" s="226">
         <f>(C11-D11)-D8-D7-D6</f>
-        <v>920.41</v>
-      </c>
-      <c r="D12" s="222"/>
+        <v>2606.9497200000001</v>
+      </c>
+      <c r="D12" s="227"/>
       <c r="E12" s="69"/>
-      <c r="F12" s="219" t="s">
+      <c r="F12" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="220"/>
+      <c r="G12" s="213"/>
       <c r="H12" s="15"/>
       <c r="I12" s="101"/>
       <c r="J12" s="82" t="s">
@@ -3081,7 +3076,7 @@
       </c>
       <c r="G13" s="37">
         <f>C11</f>
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="H13" s="97"/>
       <c r="I13" s="102" t="s">
@@ -3110,7 +3105,7 @@
       </c>
       <c r="G14" s="93">
         <f>G13-G5-D7</f>
-        <v>1110</v>
+        <v>2731.0032000000001</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="117">
@@ -3141,7 +3136,7 @@
       </c>
       <c r="G15" s="29">
         <f>IF(B5=0,0,IF(AND(G14&gt;1903.98,G14&lt;2826.65),((G14-1903.98)*B5),IF(AND(G14&gt;2826.65,G14&lt;3751.05),((2826.65-1903.98)*K15)+((G14-2826.65)*B5),IF(AND(G14&gt;3751.05,G14&lt;4664.68),((2826.65-1903.98)*K15)+((3751.05-2826.65)*K16)+((G14-3751.05)*B5),IF(G14&gt;=4664.68,((2826.65-1903.98)*K15)+((3751.05-2826.65)*K16)+((4664.68-3751.05)*K17)+((G14-4664.68)*K18),"ERRO")))))</f>
-        <v>0</v>
+        <v>124.05348000000001</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="117">
@@ -3270,10 +3265,10 @@
       <c r="N20" s="121"/>
     </row>
     <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="217" t="s">
+      <c r="A21" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="218"/>
+      <c r="B21" s="225"/>
       <c r="C21" s="174"/>
       <c r="D21" s="70"/>
       <c r="E21" s="173"/>
@@ -3288,10 +3283,10 @@
       <c r="N21" s="121"/>
     </row>
     <row r="22" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="215" t="s">
+      <c r="A22" s="222" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="216"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="156"/>
       <c r="D22" s="70"/>
       <c r="E22" s="69"/>
@@ -3340,11 +3335,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A22:B22"/>
@@ -3352,6 +3342,11 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1"/>
@@ -3432,18 +3427,18 @@
         <v>58</v>
       </c>
       <c r="E2" s="84"/>
-      <c r="F2" s="219" t="s">
+      <c r="F2" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="220"/>
+      <c r="G2" s="213"/>
       <c r="H2" s="130"/>
       <c r="I2" s="131"/>
-      <c r="J2" s="223" t="s">
+      <c r="J2" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="225"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="216"/>
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3489,11 +3484,11 @@
         <f>IF(AND(C3&gt;=0,C3&lt;=1212),K5,IF(AND(C3&lt;=2427.35,C3&gt;=1212.01),K6,IF(AND(C3&lt;=3641.03,C3&gt;=2427.36),K7,IF(AND(C3&lt;=7087.22,C3&gt;=3641.04),K8,K8))))</f>
         <v>0.09</v>
       </c>
-      <c r="C4" s="226" t="str">
+      <c r="C4" s="217" t="str">
         <f>IF(AND(C3&gt;=0,C3&lt;=1212),"Faixa 1",IF(AND(C3&lt;=2427.35,C3&gt;=1212.01),"Faixa 2",IF(AND(C3&lt;=3641.03,C3&gt;=2427.36),"Faixa 3",IF(AND(C3&lt;=7087.22,C3&gt;=3641.04),"Faixa 4","Faixa 4 - Teto INSS"))))</f>
         <v>Faixa 2</v>
       </c>
-      <c r="D4" s="227"/>
+      <c r="D4" s="218"/>
       <c r="E4" s="69"/>
       <c r="F4" s="23" t="s">
         <v>4</v>
@@ -3522,11 +3517,11 @@
         <f>IF(AND(G14&gt;=0,G14&lt;=1903.98),K14,IF(AND(G14&lt;=2826.65,G14&gt;=1903.99),K15,IF(AND(G14&lt;=3751.05,G14&gt;=2826.66),K16,IF(AND(G14&lt;=4664.68,G14&gt;=3751.06),K17,IF(AND(G14&gt;=4664.68),K18,K18)))))</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C5" s="226" t="str">
+      <c r="C5" s="217" t="str">
         <f>IF(AND(C3&gt;=0,C3&lt;=1903.98),"Faixa 1",IF(AND(C3&lt;=2826.65,C3&gt;=1903.99),"Faixa 2",IF(AND(C3&lt;=3751.05,C3&gt;=2826.66),"Faixa 3",IF(AND(C3&lt;=4664.68,C3&gt;=3751.06),"Faixa 4",IF(AND(C3&gt;=4664.68),"Faixa 5","Utilizar Faixa 5")))))</f>
         <v>Faixa 1</v>
       </c>
-      <c r="D5" s="227"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="69"/>
       <c r="F5" s="25" t="s">
         <v>5</v>
@@ -3689,7 +3684,7 @@
       <c r="N10" s="121"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="228" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="142">
@@ -3706,16 +3701,16 @@
       <c r="G11" s="69"/>
       <c r="H11" s="15"/>
       <c r="I11" s="124"/>
-      <c r="J11" s="212" t="s">
+      <c r="J11" s="219" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="213"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="214"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="221"/>
       <c r="N11" s="121"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="234"/>
+      <c r="A12" s="229"/>
       <c r="B12" s="125"/>
       <c r="C12" s="125"/>
       <c r="D12" s="184">
@@ -3723,10 +3718,10 @@
         <v>2319.7999999999997</v>
       </c>
       <c r="E12" s="69"/>
-      <c r="F12" s="219" t="s">
+      <c r="F12" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="220"/>
+      <c r="G12" s="213"/>
       <c r="H12" s="15"/>
       <c r="I12" s="101"/>
       <c r="J12" s="82" t="s">
@@ -3738,7 +3733,7 @@
       <c r="N12" s="121"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="233" t="s">
+      <c r="A13" s="228" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="142">
@@ -3775,7 +3770,7 @@
       <c r="N13" s="121"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="234"/>
+      <c r="A14" s="229"/>
       <c r="B14" s="125"/>
       <c r="C14" s="125"/>
       <c r="D14" s="184">
@@ -3848,11 +3843,11 @@
         <v>42</v>
       </c>
       <c r="B16" s="143"/>
-      <c r="C16" s="221">
+      <c r="C16" s="226">
         <f>(C15-D15)-D9+C8-D10</f>
         <v>2112.3066499999995</v>
       </c>
-      <c r="D16" s="222"/>
+      <c r="D16" s="227"/>
       <c r="E16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="117">
@@ -3893,10 +3888,10 @@
       <c r="N17" s="121"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="231" t="s">
+      <c r="A18" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="232"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="69"/>
       <c r="D18" s="70"/>
       <c r="E18" s="69"/>
@@ -3919,12 +3914,12 @@
       <c r="N18" s="121"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="228" t="s">
+      <c r="A19" s="230" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="229"/>
-      <c r="C19" s="229"/>
-      <c r="D19" s="230"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="125"/>
       <c r="F19" s="69"/>
       <c r="G19" s="69"/>
@@ -4067,6 +4062,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="J2:M2"/>
@@ -4076,11 +4076,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J11:M11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" location="topnav"/>
@@ -4176,183 +4171,183 @@
     <row r="41" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="244" t="s">
+      <c r="A43" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="244"/>
-      <c r="C43" s="244"/>
-      <c r="D43" s="244"/>
-      <c r="E43" s="244"/>
-      <c r="F43" s="244"/>
-      <c r="G43" s="244"/>
-      <c r="H43" s="244"/>
-      <c r="I43" s="244"/>
-      <c r="J43" s="244"/>
-      <c r="K43" s="244"/>
-      <c r="L43" s="244"/>
-      <c r="M43" s="244"/>
-      <c r="N43" s="244"/>
-      <c r="O43" s="244"/>
-      <c r="P43" s="244"/>
-      <c r="Q43" s="244"/>
-      <c r="R43" s="244"/>
-      <c r="S43" s="244"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="244"/>
-      <c r="V43" s="244"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="254"/>
+      <c r="E43" s="254"/>
+      <c r="F43" s="254"/>
+      <c r="G43" s="254"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="254"/>
+      <c r="J43" s="254"/>
+      <c r="K43" s="254"/>
+      <c r="L43" s="254"/>
+      <c r="M43" s="254"/>
+      <c r="N43" s="254"/>
+      <c r="O43" s="254"/>
+      <c r="P43" s="254"/>
+      <c r="Q43" s="254"/>
+      <c r="R43" s="254"/>
+      <c r="S43" s="254"/>
+      <c r="T43" s="254"/>
+      <c r="U43" s="254"/>
+      <c r="V43" s="254"/>
     </row>
     <row r="44" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="244"/>
-      <c r="B44" s="244"/>
-      <c r="C44" s="244"/>
-      <c r="D44" s="244"/>
-      <c r="E44" s="244"/>
-      <c r="F44" s="244"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="244"/>
-      <c r="I44" s="244"/>
-      <c r="J44" s="244"/>
-      <c r="K44" s="244"/>
-      <c r="L44" s="244"/>
-      <c r="M44" s="244"/>
-      <c r="N44" s="244"/>
-      <c r="O44" s="244"/>
-      <c r="P44" s="244"/>
-      <c r="Q44" s="244"/>
-      <c r="R44" s="244"/>
-      <c r="S44" s="244"/>
-      <c r="T44" s="244"/>
-      <c r="U44" s="244"/>
-      <c r="V44" s="244"/>
+      <c r="A44" s="254"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
+      <c r="E44" s="254"/>
+      <c r="F44" s="254"/>
+      <c r="G44" s="254"/>
+      <c r="H44" s="254"/>
+      <c r="I44" s="254"/>
+      <c r="J44" s="254"/>
+      <c r="K44" s="254"/>
+      <c r="L44" s="254"/>
+      <c r="M44" s="254"/>
+      <c r="N44" s="254"/>
+      <c r="O44" s="254"/>
+      <c r="P44" s="254"/>
+      <c r="Q44" s="254"/>
+      <c r="R44" s="254"/>
+      <c r="S44" s="254"/>
+      <c r="T44" s="254"/>
+      <c r="U44" s="254"/>
+      <c r="V44" s="254"/>
     </row>
     <row r="45" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="244"/>
-      <c r="B45" s="244"/>
-      <c r="C45" s="244"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="244"/>
-      <c r="F45" s="244"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="244"/>
-      <c r="J45" s="244"/>
-      <c r="K45" s="244"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="244"/>
-      <c r="N45" s="244"/>
-      <c r="O45" s="244"/>
-      <c r="P45" s="244"/>
-      <c r="Q45" s="244"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="244"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="244"/>
-      <c r="V45" s="244"/>
+      <c r="A45" s="254"/>
+      <c r="B45" s="254"/>
+      <c r="C45" s="254"/>
+      <c r="D45" s="254"/>
+      <c r="E45" s="254"/>
+      <c r="F45" s="254"/>
+      <c r="G45" s="254"/>
+      <c r="H45" s="254"/>
+      <c r="I45" s="254"/>
+      <c r="J45" s="254"/>
+      <c r="K45" s="254"/>
+      <c r="L45" s="254"/>
+      <c r="M45" s="254"/>
+      <c r="N45" s="254"/>
+      <c r="O45" s="254"/>
+      <c r="P45" s="254"/>
+      <c r="Q45" s="254"/>
+      <c r="R45" s="254"/>
+      <c r="S45" s="254"/>
+      <c r="T45" s="254"/>
+      <c r="U45" s="254"/>
+      <c r="V45" s="254"/>
     </row>
     <row r="46" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="244"/>
-      <c r="B46" s="244"/>
-      <c r="C46" s="244"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="244"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="244"/>
-      <c r="H46" s="244"/>
-      <c r="I46" s="244"/>
-      <c r="J46" s="244"/>
-      <c r="K46" s="244"/>
-      <c r="L46" s="244"/>
-      <c r="M46" s="244"/>
-      <c r="N46" s="244"/>
-      <c r="O46" s="244"/>
-      <c r="P46" s="244"/>
-      <c r="Q46" s="244"/>
-      <c r="R46" s="244"/>
-      <c r="S46" s="244"/>
-      <c r="T46" s="244"/>
-      <c r="U46" s="244"/>
-      <c r="V46" s="244"/>
+      <c r="A46" s="254"/>
+      <c r="B46" s="254"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="254"/>
+      <c r="G46" s="254"/>
+      <c r="H46" s="254"/>
+      <c r="I46" s="254"/>
+      <c r="J46" s="254"/>
+      <c r="K46" s="254"/>
+      <c r="L46" s="254"/>
+      <c r="M46" s="254"/>
+      <c r="N46" s="254"/>
+      <c r="O46" s="254"/>
+      <c r="P46" s="254"/>
+      <c r="Q46" s="254"/>
+      <c r="R46" s="254"/>
+      <c r="S46" s="254"/>
+      <c r="T46" s="254"/>
+      <c r="U46" s="254"/>
+      <c r="V46" s="254"/>
     </row>
     <row r="47" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="244"/>
-      <c r="B47" s="244"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="244"/>
-      <c r="E47" s="244"/>
-      <c r="F47" s="244"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="244"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="244"/>
-      <c r="K47" s="244"/>
-      <c r="L47" s="244"/>
-      <c r="M47" s="244"/>
-      <c r="N47" s="244"/>
-      <c r="O47" s="244"/>
-      <c r="P47" s="244"/>
-      <c r="Q47" s="244"/>
-      <c r="R47" s="244"/>
-      <c r="S47" s="244"/>
-      <c r="T47" s="244"/>
-      <c r="U47" s="244"/>
-      <c r="V47" s="244"/>
+      <c r="A47" s="254"/>
+      <c r="B47" s="254"/>
+      <c r="C47" s="254"/>
+      <c r="D47" s="254"/>
+      <c r="E47" s="254"/>
+      <c r="F47" s="254"/>
+      <c r="G47" s="254"/>
+      <c r="H47" s="254"/>
+      <c r="I47" s="254"/>
+      <c r="J47" s="254"/>
+      <c r="K47" s="254"/>
+      <c r="L47" s="254"/>
+      <c r="M47" s="254"/>
+      <c r="N47" s="254"/>
+      <c r="O47" s="254"/>
+      <c r="P47" s="254"/>
+      <c r="Q47" s="254"/>
+      <c r="R47" s="254"/>
+      <c r="S47" s="254"/>
+      <c r="T47" s="254"/>
+      <c r="U47" s="254"/>
+      <c r="V47" s="254"/>
     </row>
     <row r="48" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="244"/>
-      <c r="B48" s="244"/>
-      <c r="C48" s="244"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="244"/>
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="244"/>
-      <c r="J48" s="244"/>
-      <c r="K48" s="244"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="244"/>
-      <c r="N48" s="244"/>
-      <c r="O48" s="244"/>
-      <c r="P48" s="244"/>
-      <c r="Q48" s="244"/>
-      <c r="R48" s="244"/>
-      <c r="S48" s="244"/>
-      <c r="T48" s="244"/>
-      <c r="U48" s="244"/>
-      <c r="V48" s="244"/>
+      <c r="A48" s="254"/>
+      <c r="B48" s="254"/>
+      <c r="C48" s="254"/>
+      <c r="D48" s="254"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="254"/>
+      <c r="G48" s="254"/>
+      <c r="H48" s="254"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="254"/>
+      <c r="K48" s="254"/>
+      <c r="L48" s="254"/>
+      <c r="M48" s="254"/>
+      <c r="N48" s="254"/>
+      <c r="O48" s="254"/>
+      <c r="P48" s="254"/>
+      <c r="Q48" s="254"/>
+      <c r="R48" s="254"/>
+      <c r="S48" s="254"/>
+      <c r="T48" s="254"/>
+      <c r="U48" s="254"/>
+      <c r="V48" s="254"/>
     </row>
     <row r="49" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="244"/>
-      <c r="B49" s="244"/>
-      <c r="C49" s="244"/>
-      <c r="D49" s="244"/>
-      <c r="E49" s="244"/>
-      <c r="F49" s="244"/>
-      <c r="G49" s="244"/>
-      <c r="H49" s="244"/>
-      <c r="I49" s="244"/>
-      <c r="J49" s="244"/>
-      <c r="K49" s="244"/>
-      <c r="L49" s="244"/>
-      <c r="M49" s="244"/>
-      <c r="N49" s="244"/>
-      <c r="O49" s="244"/>
-      <c r="P49" s="244"/>
-      <c r="Q49" s="244"/>
-      <c r="R49" s="244"/>
-      <c r="S49" s="244"/>
-      <c r="T49" s="244"/>
-      <c r="U49" s="244"/>
-      <c r="V49" s="244"/>
+      <c r="A49" s="254"/>
+      <c r="B49" s="254"/>
+      <c r="C49" s="254"/>
+      <c r="D49" s="254"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="254"/>
+      <c r="G49" s="254"/>
+      <c r="H49" s="254"/>
+      <c r="I49" s="254"/>
+      <c r="J49" s="254"/>
+      <c r="K49" s="254"/>
+      <c r="L49" s="254"/>
+      <c r="M49" s="254"/>
+      <c r="N49" s="254"/>
+      <c r="O49" s="254"/>
+      <c r="P49" s="254"/>
+      <c r="Q49" s="254"/>
+      <c r="R49" s="254"/>
+      <c r="S49" s="254"/>
+      <c r="T49" s="254"/>
+      <c r="U49" s="254"/>
+      <c r="V49" s="254"/>
     </row>
     <row r="50" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="245" t="s">
+      <c r="A51" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="245"/>
-      <c r="C51" s="245"/>
-      <c r="D51" s="245"/>
+      <c r="B51" s="255"/>
+      <c r="C51" s="255"/>
+      <c r="D51" s="255"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:22" ht="21.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4366,17 +4361,17 @@
       <c r="F53" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H53" s="219" t="s">
+      <c r="H53" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="220"/>
-      <c r="J53" s="235" t="s">
+      <c r="I53" s="213"/>
+      <c r="J53" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="236"/>
-      <c r="L53" s="236"/>
-      <c r="M53" s="236"/>
-      <c r="N53" s="237"/>
+      <c r="K53" s="249"/>
+      <c r="L53" s="249"/>
+      <c r="M53" s="249"/>
+      <c r="N53" s="250"/>
     </row>
     <row r="54" spans="1:22" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C54" s="43" t="s">
@@ -4394,13 +4389,13 @@
         <f>E54+E57</f>
         <v>2319.7999999999997</v>
       </c>
-      <c r="J54" s="238" t="s">
+      <c r="J54" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="239"/>
-      <c r="L54" s="239"/>
-      <c r="M54" s="239"/>
-      <c r="N54" s="240"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="252"/>
+      <c r="M54" s="252"/>
+      <c r="N54" s="253"/>
     </row>
     <row r="55" spans="1:22" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C55" s="48" t="s">
@@ -4418,13 +4413,13 @@
         <f>1212*7.5%</f>
         <v>90.899999999999991</v>
       </c>
-      <c r="J55" s="241" t="s">
+      <c r="J55" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="242"/>
-      <c r="L55" s="242"/>
-      <c r="M55" s="242"/>
-      <c r="N55" s="243"/>
+      <c r="K55" s="243"/>
+      <c r="L55" s="243"/>
+      <c r="M55" s="243"/>
+      <c r="N55" s="244"/>
     </row>
     <row r="56" spans="1:22" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C56" s="48" t="s">
@@ -4442,13 +4437,13 @@
         <f>(E62-1212)-E58</f>
         <v>1107.7999999999997</v>
       </c>
-      <c r="J56" s="241" t="s">
+      <c r="J56" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="242"/>
-      <c r="L56" s="242"/>
-      <c r="M56" s="242"/>
-      <c r="N56" s="243"/>
+      <c r="K56" s="243"/>
+      <c r="L56" s="243"/>
+      <c r="M56" s="243"/>
+      <c r="N56" s="244"/>
     </row>
     <row r="57" spans="1:22" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C57" s="54" t="s">
@@ -4467,13 +4462,13 @@
         <f>I56*D56</f>
         <v>83.08499999999998</v>
       </c>
-      <c r="J57" s="241" t="s">
+      <c r="J57" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="242"/>
-      <c r="L57" s="242"/>
-      <c r="M57" s="242"/>
-      <c r="N57" s="243"/>
+      <c r="K57" s="243"/>
+      <c r="L57" s="243"/>
+      <c r="M57" s="243"/>
+      <c r="N57" s="244"/>
     </row>
     <row r="58" spans="1:22" ht="21.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C58" s="58" t="s">
@@ -4492,13 +4487,13 @@
         <f>I55+I57</f>
         <v>173.98499999999996</v>
       </c>
-      <c r="J58" s="246" t="s">
+      <c r="J58" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="247"/>
-      <c r="L58" s="247"/>
-      <c r="M58" s="247"/>
-      <c r="N58" s="248"/>
+      <c r="K58" s="246"/>
+      <c r="L58" s="246"/>
+      <c r="M58" s="246"/>
+      <c r="N58" s="247"/>
     </row>
     <row r="59" spans="1:22" ht="21.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C59" s="58" t="s">
@@ -4531,17 +4526,17 @@
         <f>I58</f>
         <v>173.98499999999996</v>
       </c>
-      <c r="H60" s="219" t="s">
+      <c r="H60" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="220"/>
-      <c r="J60" s="235" t="s">
+      <c r="I60" s="213"/>
+      <c r="J60" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="236"/>
-      <c r="L60" s="236"/>
-      <c r="M60" s="236"/>
-      <c r="N60" s="237"/>
+      <c r="K60" s="249"/>
+      <c r="L60" s="249"/>
+      <c r="M60" s="249"/>
+      <c r="N60" s="250"/>
       <c r="P60" s="38" t="s">
         <v>46</v>
       </c>
@@ -4566,13 +4561,13 @@
         <f>E54+E57</f>
         <v>2319.7999999999997</v>
       </c>
-      <c r="J61" s="238" t="s">
+      <c r="J61" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="239"/>
-      <c r="L61" s="239"/>
-      <c r="M61" s="239"/>
-      <c r="N61" s="240"/>
+      <c r="K61" s="252"/>
+      <c r="L61" s="252"/>
+      <c r="M61" s="252"/>
+      <c r="N61" s="253"/>
       <c r="P61" s="38" t="s">
         <v>60</v>
       </c>
@@ -4597,24 +4592,24 @@
         <f>I61-I58</f>
         <v>2145.8149999999996</v>
       </c>
-      <c r="J62" s="241" t="s">
+      <c r="J62" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="K62" s="242"/>
-      <c r="L62" s="242"/>
-      <c r="M62" s="242"/>
-      <c r="N62" s="243"/>
+      <c r="K62" s="243"/>
+      <c r="L62" s="243"/>
+      <c r="M62" s="243"/>
+      <c r="N62" s="244"/>
     </row>
     <row r="63" spans="1:22" ht="21.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="252" t="s">
+      <c r="C63" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="253"/>
-      <c r="E63" s="254">
+      <c r="D63" s="239"/>
+      <c r="E63" s="240">
         <f>(E62-F62)+E59-F58</f>
         <v>2095.4916499999999</v>
       </c>
-      <c r="F63" s="255"/>
+      <c r="F63" s="241"/>
       <c r="H63" s="52" t="s">
         <v>5</v>
       </c>
@@ -4622,13 +4617,13 @@
         <f>I62*D55</f>
         <v>193.12334999999996</v>
       </c>
-      <c r="J63" s="241" t="s">
+      <c r="J63" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="242"/>
-      <c r="L63" s="242"/>
-      <c r="M63" s="242"/>
-      <c r="N63" s="243"/>
+      <c r="K63" s="243"/>
+      <c r="L63" s="243"/>
+      <c r="M63" s="243"/>
+      <c r="N63" s="244"/>
     </row>
     <row r="64" spans="1:22" ht="19.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G64" s="1"/>
@@ -4639,538 +4634,538 @@
         <f>I63-142.8</f>
         <v>50.323349999999948</v>
       </c>
-      <c r="J64" s="246" t="s">
+      <c r="J64" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="K64" s="247"/>
-      <c r="L64" s="247"/>
-      <c r="M64" s="247"/>
-      <c r="N64" s="248"/>
+      <c r="K64" s="246"/>
+      <c r="L64" s="246"/>
+      <c r="M64" s="246"/>
+      <c r="N64" s="247"/>
     </row>
     <row r="65" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="250" t="s">
+      <c r="A65" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="251"/>
-      <c r="C65" s="251"/>
-      <c r="D65" s="251"/>
-      <c r="E65" s="251"/>
-      <c r="F65" s="251"/>
+      <c r="B65" s="237"/>
+      <c r="C65" s="237"/>
+      <c r="D65" s="237"/>
+      <c r="E65" s="237"/>
+      <c r="F65" s="237"/>
     </row>
     <row r="66" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="249" t="s">
+      <c r="A67" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="249"/>
-      <c r="C67" s="249"/>
-      <c r="D67" s="249"/>
-      <c r="E67" s="249"/>
-      <c r="F67" s="249"/>
-      <c r="G67" s="249"/>
-      <c r="H67" s="249"/>
-      <c r="I67" s="249"/>
-      <c r="J67" s="249"/>
-      <c r="K67" s="249"/>
-      <c r="L67" s="249"/>
-      <c r="M67" s="249"/>
-      <c r="N67" s="249"/>
-      <c r="O67" s="249"/>
-      <c r="P67" s="249"/>
-      <c r="Q67" s="249"/>
-      <c r="R67" s="249"/>
+      <c r="B67" s="235"/>
+      <c r="C67" s="235"/>
+      <c r="D67" s="235"/>
+      <c r="E67" s="235"/>
+      <c r="F67" s="235"/>
+      <c r="G67" s="235"/>
+      <c r="H67" s="235"/>
+      <c r="I67" s="235"/>
+      <c r="J67" s="235"/>
+      <c r="K67" s="235"/>
+      <c r="L67" s="235"/>
+      <c r="M67" s="235"/>
+      <c r="N67" s="235"/>
+      <c r="O67" s="235"/>
+      <c r="P67" s="235"/>
+      <c r="Q67" s="235"/>
+      <c r="R67" s="235"/>
       <c r="S67" s="66"/>
       <c r="T67" s="66"/>
     </row>
     <row r="68" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="249"/>
-      <c r="B68" s="249"/>
-      <c r="C68" s="249"/>
-      <c r="D68" s="249"/>
-      <c r="E68" s="249"/>
-      <c r="F68" s="249"/>
-      <c r="G68" s="249"/>
-      <c r="H68" s="249"/>
-      <c r="I68" s="249"/>
-      <c r="J68" s="249"/>
-      <c r="K68" s="249"/>
-      <c r="L68" s="249"/>
-      <c r="M68" s="249"/>
-      <c r="N68" s="249"/>
-      <c r="O68" s="249"/>
-      <c r="P68" s="249"/>
-      <c r="Q68" s="249"/>
-      <c r="R68" s="249"/>
+      <c r="A68" s="235"/>
+      <c r="B68" s="235"/>
+      <c r="C68" s="235"/>
+      <c r="D68" s="235"/>
+      <c r="E68" s="235"/>
+      <c r="F68" s="235"/>
+      <c r="G68" s="235"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
+      <c r="J68" s="235"/>
+      <c r="K68" s="235"/>
+      <c r="L68" s="235"/>
+      <c r="M68" s="235"/>
+      <c r="N68" s="235"/>
+      <c r="O68" s="235"/>
+      <c r="P68" s="235"/>
+      <c r="Q68" s="235"/>
+      <c r="R68" s="235"/>
       <c r="S68" s="66"/>
       <c r="T68" s="66"/>
     </row>
     <row r="69" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="249"/>
-      <c r="B69" s="249"/>
-      <c r="C69" s="249"/>
-      <c r="D69" s="249"/>
-      <c r="E69" s="249"/>
-      <c r="F69" s="249"/>
-      <c r="G69" s="249"/>
-      <c r="H69" s="249"/>
-      <c r="I69" s="249"/>
-      <c r="J69" s="249"/>
-      <c r="K69" s="249"/>
-      <c r="L69" s="249"/>
-      <c r="M69" s="249"/>
-      <c r="N69" s="249"/>
-      <c r="O69" s="249"/>
-      <c r="P69" s="249"/>
-      <c r="Q69" s="249"/>
-      <c r="R69" s="249"/>
+      <c r="A69" s="235"/>
+      <c r="B69" s="235"/>
+      <c r="C69" s="235"/>
+      <c r="D69" s="235"/>
+      <c r="E69" s="235"/>
+      <c r="F69" s="235"/>
+      <c r="G69" s="235"/>
+      <c r="H69" s="235"/>
+      <c r="I69" s="235"/>
+      <c r="J69" s="235"/>
+      <c r="K69" s="235"/>
+      <c r="L69" s="235"/>
+      <c r="M69" s="235"/>
+      <c r="N69" s="235"/>
+      <c r="O69" s="235"/>
+      <c r="P69" s="235"/>
+      <c r="Q69" s="235"/>
+      <c r="R69" s="235"/>
       <c r="S69" s="66"/>
       <c r="T69" s="66"/>
     </row>
     <row r="70" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="249"/>
-      <c r="B70" s="249"/>
-      <c r="C70" s="249"/>
-      <c r="D70" s="249"/>
-      <c r="E70" s="249"/>
-      <c r="F70" s="249"/>
-      <c r="G70" s="249"/>
-      <c r="H70" s="249"/>
-      <c r="I70" s="249"/>
-      <c r="J70" s="249"/>
-      <c r="K70" s="249"/>
-      <c r="L70" s="249"/>
-      <c r="M70" s="249"/>
-      <c r="N70" s="249"/>
-      <c r="O70" s="249"/>
-      <c r="P70" s="249"/>
-      <c r="Q70" s="249"/>
-      <c r="R70" s="249"/>
+      <c r="A70" s="235"/>
+      <c r="B70" s="235"/>
+      <c r="C70" s="235"/>
+      <c r="D70" s="235"/>
+      <c r="E70" s="235"/>
+      <c r="F70" s="235"/>
+      <c r="G70" s="235"/>
+      <c r="H70" s="235"/>
+      <c r="I70" s="235"/>
+      <c r="J70" s="235"/>
+      <c r="K70" s="235"/>
+      <c r="L70" s="235"/>
+      <c r="M70" s="235"/>
+      <c r="N70" s="235"/>
+      <c r="O70" s="235"/>
+      <c r="P70" s="235"/>
+      <c r="Q70" s="235"/>
+      <c r="R70" s="235"/>
       <c r="S70" s="66"/>
       <c r="T70" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="249"/>
-      <c r="B71" s="249"/>
-      <c r="C71" s="249"/>
-      <c r="D71" s="249"/>
-      <c r="E71" s="249"/>
-      <c r="F71" s="249"/>
-      <c r="G71" s="249"/>
-      <c r="H71" s="249"/>
-      <c r="I71" s="249"/>
-      <c r="J71" s="249"/>
-      <c r="K71" s="249"/>
-      <c r="L71" s="249"/>
-      <c r="M71" s="249"/>
-      <c r="N71" s="249"/>
-      <c r="O71" s="249"/>
-      <c r="P71" s="249"/>
-      <c r="Q71" s="249"/>
-      <c r="R71" s="249"/>
+      <c r="A71" s="235"/>
+      <c r="B71" s="235"/>
+      <c r="C71" s="235"/>
+      <c r="D71" s="235"/>
+      <c r="E71" s="235"/>
+      <c r="F71" s="235"/>
+      <c r="G71" s="235"/>
+      <c r="H71" s="235"/>
+      <c r="I71" s="235"/>
+      <c r="J71" s="235"/>
+      <c r="K71" s="235"/>
+      <c r="L71" s="235"/>
+      <c r="M71" s="235"/>
+      <c r="N71" s="235"/>
+      <c r="O71" s="235"/>
+      <c r="P71" s="235"/>
+      <c r="Q71" s="235"/>
+      <c r="R71" s="235"/>
       <c r="S71" s="66"/>
       <c r="T71" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="249"/>
-      <c r="B72" s="249"/>
-      <c r="C72" s="249"/>
-      <c r="D72" s="249"/>
-      <c r="E72" s="249"/>
-      <c r="F72" s="249"/>
-      <c r="G72" s="249"/>
-      <c r="H72" s="249"/>
-      <c r="I72" s="249"/>
-      <c r="J72" s="249"/>
-      <c r="K72" s="249"/>
-      <c r="L72" s="249"/>
-      <c r="M72" s="249"/>
-      <c r="N72" s="249"/>
-      <c r="O72" s="249"/>
-      <c r="P72" s="249"/>
-      <c r="Q72" s="249"/>
-      <c r="R72" s="249"/>
+      <c r="A72" s="235"/>
+      <c r="B72" s="235"/>
+      <c r="C72" s="235"/>
+      <c r="D72" s="235"/>
+      <c r="E72" s="235"/>
+      <c r="F72" s="235"/>
+      <c r="G72" s="235"/>
+      <c r="H72" s="235"/>
+      <c r="I72" s="235"/>
+      <c r="J72" s="235"/>
+      <c r="K72" s="235"/>
+      <c r="L72" s="235"/>
+      <c r="M72" s="235"/>
+      <c r="N72" s="235"/>
+      <c r="O72" s="235"/>
+      <c r="P72" s="235"/>
+      <c r="Q72" s="235"/>
+      <c r="R72" s="235"/>
       <c r="S72" s="66"/>
       <c r="T72" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="249"/>
-      <c r="B73" s="249"/>
-      <c r="C73" s="249"/>
-      <c r="D73" s="249"/>
-      <c r="E73" s="249"/>
-      <c r="F73" s="249"/>
-      <c r="G73" s="249"/>
-      <c r="H73" s="249"/>
-      <c r="I73" s="249"/>
-      <c r="J73" s="249"/>
-      <c r="K73" s="249"/>
-      <c r="L73" s="249"/>
-      <c r="M73" s="249"/>
-      <c r="N73" s="249"/>
-      <c r="O73" s="249"/>
-      <c r="P73" s="249"/>
-      <c r="Q73" s="249"/>
-      <c r="R73" s="249"/>
+      <c r="A73" s="235"/>
+      <c r="B73" s="235"/>
+      <c r="C73" s="235"/>
+      <c r="D73" s="235"/>
+      <c r="E73" s="235"/>
+      <c r="F73" s="235"/>
+      <c r="G73" s="235"/>
+      <c r="H73" s="235"/>
+      <c r="I73" s="235"/>
+      <c r="J73" s="235"/>
+      <c r="K73" s="235"/>
+      <c r="L73" s="235"/>
+      <c r="M73" s="235"/>
+      <c r="N73" s="235"/>
+      <c r="O73" s="235"/>
+      <c r="P73" s="235"/>
+      <c r="Q73" s="235"/>
+      <c r="R73" s="235"/>
       <c r="S73" s="66"/>
       <c r="T73" s="66">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="249"/>
-      <c r="B74" s="249"/>
-      <c r="C74" s="249"/>
-      <c r="D74" s="249"/>
-      <c r="E74" s="249"/>
-      <c r="F74" s="249"/>
-      <c r="G74" s="249"/>
-      <c r="H74" s="249"/>
-      <c r="I74" s="249"/>
-      <c r="J74" s="249"/>
-      <c r="K74" s="249"/>
-      <c r="L74" s="249"/>
-      <c r="M74" s="249"/>
-      <c r="N74" s="249"/>
-      <c r="O74" s="249"/>
-      <c r="P74" s="249"/>
-      <c r="Q74" s="249"/>
-      <c r="R74" s="249"/>
+      <c r="A74" s="235"/>
+      <c r="B74" s="235"/>
+      <c r="C74" s="235"/>
+      <c r="D74" s="235"/>
+      <c r="E74" s="235"/>
+      <c r="F74" s="235"/>
+      <c r="G74" s="235"/>
+      <c r="H74" s="235"/>
+      <c r="I74" s="235"/>
+      <c r="J74" s="235"/>
+      <c r="K74" s="235"/>
+      <c r="L74" s="235"/>
+      <c r="M74" s="235"/>
+      <c r="N74" s="235"/>
+      <c r="O74" s="235"/>
+      <c r="P74" s="235"/>
+      <c r="Q74" s="235"/>
+      <c r="R74" s="235"/>
       <c r="S74" s="66"/>
       <c r="T74" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="249"/>
-      <c r="B75" s="249"/>
-      <c r="C75" s="249"/>
-      <c r="D75" s="249"/>
-      <c r="E75" s="249"/>
-      <c r="F75" s="249"/>
-      <c r="G75" s="249"/>
-      <c r="H75" s="249"/>
-      <c r="I75" s="249"/>
-      <c r="J75" s="249"/>
-      <c r="K75" s="249"/>
-      <c r="L75" s="249"/>
-      <c r="M75" s="249"/>
-      <c r="N75" s="249"/>
-      <c r="O75" s="249"/>
-      <c r="P75" s="249"/>
-      <c r="Q75" s="249"/>
-      <c r="R75" s="249"/>
+      <c r="A75" s="235"/>
+      <c r="B75" s="235"/>
+      <c r="C75" s="235"/>
+      <c r="D75" s="235"/>
+      <c r="E75" s="235"/>
+      <c r="F75" s="235"/>
+      <c r="G75" s="235"/>
+      <c r="H75" s="235"/>
+      <c r="I75" s="235"/>
+      <c r="J75" s="235"/>
+      <c r="K75" s="235"/>
+      <c r="L75" s="235"/>
+      <c r="M75" s="235"/>
+      <c r="N75" s="235"/>
+      <c r="O75" s="235"/>
+      <c r="P75" s="235"/>
+      <c r="Q75" s="235"/>
+      <c r="R75" s="235"/>
       <c r="S75" s="66"/>
       <c r="T75" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="249"/>
-      <c r="B76" s="249"/>
-      <c r="C76" s="249"/>
-      <c r="D76" s="249"/>
-      <c r="E76" s="249"/>
-      <c r="F76" s="249"/>
-      <c r="G76" s="249"/>
-      <c r="H76" s="249"/>
-      <c r="I76" s="249"/>
-      <c r="J76" s="249"/>
-      <c r="K76" s="249"/>
-      <c r="L76" s="249"/>
-      <c r="M76" s="249"/>
-      <c r="N76" s="249"/>
-      <c r="O76" s="249"/>
-      <c r="P76" s="249"/>
-      <c r="Q76" s="249"/>
-      <c r="R76" s="249"/>
+      <c r="A76" s="235"/>
+      <c r="B76" s="235"/>
+      <c r="C76" s="235"/>
+      <c r="D76" s="235"/>
+      <c r="E76" s="235"/>
+      <c r="F76" s="235"/>
+      <c r="G76" s="235"/>
+      <c r="H76" s="235"/>
+      <c r="I76" s="235"/>
+      <c r="J76" s="235"/>
+      <c r="K76" s="235"/>
+      <c r="L76" s="235"/>
+      <c r="M76" s="235"/>
+      <c r="N76" s="235"/>
+      <c r="O76" s="235"/>
+      <c r="P76" s="235"/>
+      <c r="Q76" s="235"/>
+      <c r="R76" s="235"/>
       <c r="S76" s="66"/>
       <c r="T76" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="249"/>
-      <c r="B77" s="249"/>
-      <c r="C77" s="249"/>
-      <c r="D77" s="249"/>
-      <c r="E77" s="249"/>
-      <c r="F77" s="249"/>
-      <c r="G77" s="249"/>
-      <c r="H77" s="249"/>
-      <c r="I77" s="249"/>
-      <c r="J77" s="249"/>
-      <c r="K77" s="249"/>
-      <c r="L77" s="249"/>
-      <c r="M77" s="249"/>
-      <c r="N77" s="249"/>
-      <c r="O77" s="249"/>
-      <c r="P77" s="249"/>
-      <c r="Q77" s="249"/>
-      <c r="R77" s="249"/>
+      <c r="A77" s="235"/>
+      <c r="B77" s="235"/>
+      <c r="C77" s="235"/>
+      <c r="D77" s="235"/>
+      <c r="E77" s="235"/>
+      <c r="F77" s="235"/>
+      <c r="G77" s="235"/>
+      <c r="H77" s="235"/>
+      <c r="I77" s="235"/>
+      <c r="J77" s="235"/>
+      <c r="K77" s="235"/>
+      <c r="L77" s="235"/>
+      <c r="M77" s="235"/>
+      <c r="N77" s="235"/>
+      <c r="O77" s="235"/>
+      <c r="P77" s="235"/>
+      <c r="Q77" s="235"/>
+      <c r="R77" s="235"/>
       <c r="S77" s="66"/>
       <c r="T77" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="249"/>
-      <c r="B78" s="249"/>
-      <c r="C78" s="249"/>
-      <c r="D78" s="249"/>
-      <c r="E78" s="249"/>
-      <c r="F78" s="249"/>
-      <c r="G78" s="249"/>
-      <c r="H78" s="249"/>
-      <c r="I78" s="249"/>
-      <c r="J78" s="249"/>
-      <c r="K78" s="249"/>
-      <c r="L78" s="249"/>
-      <c r="M78" s="249"/>
-      <c r="N78" s="249"/>
-      <c r="O78" s="249"/>
-      <c r="P78" s="249"/>
-      <c r="Q78" s="249"/>
-      <c r="R78" s="249"/>
+      <c r="A78" s="235"/>
+      <c r="B78" s="235"/>
+      <c r="C78" s="235"/>
+      <c r="D78" s="235"/>
+      <c r="E78" s="235"/>
+      <c r="F78" s="235"/>
+      <c r="G78" s="235"/>
+      <c r="H78" s="235"/>
+      <c r="I78" s="235"/>
+      <c r="J78" s="235"/>
+      <c r="K78" s="235"/>
+      <c r="L78" s="235"/>
+      <c r="M78" s="235"/>
+      <c r="N78" s="235"/>
+      <c r="O78" s="235"/>
+      <c r="P78" s="235"/>
+      <c r="Q78" s="235"/>
+      <c r="R78" s="235"/>
       <c r="S78" s="66"/>
       <c r="T78" s="66">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="249"/>
-      <c r="B79" s="249"/>
-      <c r="C79" s="249"/>
-      <c r="D79" s="249"/>
-      <c r="E79" s="249"/>
-      <c r="F79" s="249"/>
-      <c r="G79" s="249"/>
-      <c r="H79" s="249"/>
-      <c r="I79" s="249"/>
-      <c r="J79" s="249"/>
-      <c r="K79" s="249"/>
-      <c r="L79" s="249"/>
-      <c r="M79" s="249"/>
-      <c r="N79" s="249"/>
-      <c r="O79" s="249"/>
-      <c r="P79" s="249"/>
-      <c r="Q79" s="249"/>
-      <c r="R79" s="249"/>
+      <c r="A79" s="235"/>
+      <c r="B79" s="235"/>
+      <c r="C79" s="235"/>
+      <c r="D79" s="235"/>
+      <c r="E79" s="235"/>
+      <c r="F79" s="235"/>
+      <c r="G79" s="235"/>
+      <c r="H79" s="235"/>
+      <c r="I79" s="235"/>
+      <c r="J79" s="235"/>
+      <c r="K79" s="235"/>
+      <c r="L79" s="235"/>
+      <c r="M79" s="235"/>
+      <c r="N79" s="235"/>
+      <c r="O79" s="235"/>
+      <c r="P79" s="235"/>
+      <c r="Q79" s="235"/>
+      <c r="R79" s="235"/>
       <c r="S79" s="66"/>
       <c r="T79" s="66">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="249"/>
-      <c r="B80" s="249"/>
-      <c r="C80" s="249"/>
-      <c r="D80" s="249"/>
-      <c r="E80" s="249"/>
-      <c r="F80" s="249"/>
-      <c r="G80" s="249"/>
-      <c r="H80" s="249"/>
-      <c r="I80" s="249"/>
-      <c r="J80" s="249"/>
-      <c r="K80" s="249"/>
-      <c r="L80" s="249"/>
-      <c r="M80" s="249"/>
-      <c r="N80" s="249"/>
-      <c r="O80" s="249"/>
-      <c r="P80" s="249"/>
-      <c r="Q80" s="249"/>
-      <c r="R80" s="249"/>
+      <c r="A80" s="235"/>
+      <c r="B80" s="235"/>
+      <c r="C80" s="235"/>
+      <c r="D80" s="235"/>
+      <c r="E80" s="235"/>
+      <c r="F80" s="235"/>
+      <c r="G80" s="235"/>
+      <c r="H80" s="235"/>
+      <c r="I80" s="235"/>
+      <c r="J80" s="235"/>
+      <c r="K80" s="235"/>
+      <c r="L80" s="235"/>
+      <c r="M80" s="235"/>
+      <c r="N80" s="235"/>
+      <c r="O80" s="235"/>
+      <c r="P80" s="235"/>
+      <c r="Q80" s="235"/>
+      <c r="R80" s="235"/>
       <c r="S80" s="66"/>
       <c r="T80" s="66">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="249"/>
-      <c r="B81" s="249"/>
-      <c r="C81" s="249"/>
-      <c r="D81" s="249"/>
-      <c r="E81" s="249"/>
-      <c r="F81" s="249"/>
-      <c r="G81" s="249"/>
-      <c r="H81" s="249"/>
-      <c r="I81" s="249"/>
-      <c r="J81" s="249"/>
-      <c r="K81" s="249"/>
-      <c r="L81" s="249"/>
-      <c r="M81" s="249"/>
-      <c r="N81" s="249"/>
-      <c r="O81" s="249"/>
-      <c r="P81" s="249"/>
-      <c r="Q81" s="249"/>
-      <c r="R81" s="249"/>
+      <c r="A81" s="235"/>
+      <c r="B81" s="235"/>
+      <c r="C81" s="235"/>
+      <c r="D81" s="235"/>
+      <c r="E81" s="235"/>
+      <c r="F81" s="235"/>
+      <c r="G81" s="235"/>
+      <c r="H81" s="235"/>
+      <c r="I81" s="235"/>
+      <c r="J81" s="235"/>
+      <c r="K81" s="235"/>
+      <c r="L81" s="235"/>
+      <c r="M81" s="235"/>
+      <c r="N81" s="235"/>
+      <c r="O81" s="235"/>
+      <c r="P81" s="235"/>
+      <c r="Q81" s="235"/>
+      <c r="R81" s="235"/>
       <c r="S81" s="66"/>
       <c r="T81" s="66">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="249"/>
-      <c r="B82" s="249"/>
-      <c r="C82" s="249"/>
-      <c r="D82" s="249"/>
-      <c r="E82" s="249"/>
-      <c r="F82" s="249"/>
-      <c r="G82" s="249"/>
-      <c r="H82" s="249"/>
-      <c r="I82" s="249"/>
-      <c r="J82" s="249"/>
-      <c r="K82" s="249"/>
-      <c r="L82" s="249"/>
-      <c r="M82" s="249"/>
-      <c r="N82" s="249"/>
-      <c r="O82" s="249"/>
-      <c r="P82" s="249"/>
-      <c r="Q82" s="249"/>
-      <c r="R82" s="249"/>
+      <c r="A82" s="235"/>
+      <c r="B82" s="235"/>
+      <c r="C82" s="235"/>
+      <c r="D82" s="235"/>
+      <c r="E82" s="235"/>
+      <c r="F82" s="235"/>
+      <c r="G82" s="235"/>
+      <c r="H82" s="235"/>
+      <c r="I82" s="235"/>
+      <c r="J82" s="235"/>
+      <c r="K82" s="235"/>
+      <c r="L82" s="235"/>
+      <c r="M82" s="235"/>
+      <c r="N82" s="235"/>
+      <c r="O82" s="235"/>
+      <c r="P82" s="235"/>
+      <c r="Q82" s="235"/>
+      <c r="R82" s="235"/>
       <c r="T82" s="66">
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="249"/>
-      <c r="B83" s="249"/>
-      <c r="C83" s="249"/>
-      <c r="D83" s="249"/>
-      <c r="E83" s="249"/>
-      <c r="F83" s="249"/>
-      <c r="G83" s="249"/>
-      <c r="H83" s="249"/>
-      <c r="I83" s="249"/>
-      <c r="J83" s="249"/>
-      <c r="K83" s="249"/>
-      <c r="L83" s="249"/>
-      <c r="M83" s="249"/>
-      <c r="N83" s="249"/>
-      <c r="O83" s="249"/>
-      <c r="P83" s="249"/>
-      <c r="Q83" s="249"/>
-      <c r="R83" s="249"/>
+      <c r="A83" s="235"/>
+      <c r="B83" s="235"/>
+      <c r="C83" s="235"/>
+      <c r="D83" s="235"/>
+      <c r="E83" s="235"/>
+      <c r="F83" s="235"/>
+      <c r="G83" s="235"/>
+      <c r="H83" s="235"/>
+      <c r="I83" s="235"/>
+      <c r="J83" s="235"/>
+      <c r="K83" s="235"/>
+      <c r="L83" s="235"/>
+      <c r="M83" s="235"/>
+      <c r="N83" s="235"/>
+      <c r="O83" s="235"/>
+      <c r="P83" s="235"/>
+      <c r="Q83" s="235"/>
+      <c r="R83" s="235"/>
       <c r="T83" s="66">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="249"/>
-      <c r="B84" s="249"/>
-      <c r="C84" s="249"/>
-      <c r="D84" s="249"/>
-      <c r="E84" s="249"/>
-      <c r="F84" s="249"/>
-      <c r="G84" s="249"/>
-      <c r="H84" s="249"/>
-      <c r="I84" s="249"/>
-      <c r="J84" s="249"/>
-      <c r="K84" s="249"/>
-      <c r="L84" s="249"/>
-      <c r="M84" s="249"/>
-      <c r="N84" s="249"/>
-      <c r="O84" s="249"/>
-      <c r="P84" s="249"/>
-      <c r="Q84" s="249"/>
-      <c r="R84" s="249"/>
+      <c r="A84" s="235"/>
+      <c r="B84" s="235"/>
+      <c r="C84" s="235"/>
+      <c r="D84" s="235"/>
+      <c r="E84" s="235"/>
+      <c r="F84" s="235"/>
+      <c r="G84" s="235"/>
+      <c r="H84" s="235"/>
+      <c r="I84" s="235"/>
+      <c r="J84" s="235"/>
+      <c r="K84" s="235"/>
+      <c r="L84" s="235"/>
+      <c r="M84" s="235"/>
+      <c r="N84" s="235"/>
+      <c r="O84" s="235"/>
+      <c r="P84" s="235"/>
+      <c r="Q84" s="235"/>
+      <c r="R84" s="235"/>
       <c r="T84" s="66">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="249"/>
-      <c r="B85" s="249"/>
-      <c r="C85" s="249"/>
-      <c r="D85" s="249"/>
-      <c r="E85" s="249"/>
-      <c r="F85" s="249"/>
-      <c r="G85" s="249"/>
-      <c r="H85" s="249"/>
-      <c r="I85" s="249"/>
-      <c r="J85" s="249"/>
-      <c r="K85" s="249"/>
-      <c r="L85" s="249"/>
-      <c r="M85" s="249"/>
-      <c r="N85" s="249"/>
-      <c r="O85" s="249"/>
-      <c r="P85" s="249"/>
-      <c r="Q85" s="249"/>
-      <c r="R85" s="249"/>
+      <c r="A85" s="235"/>
+      <c r="B85" s="235"/>
+      <c r="C85" s="235"/>
+      <c r="D85" s="235"/>
+      <c r="E85" s="235"/>
+      <c r="F85" s="235"/>
+      <c r="G85" s="235"/>
+      <c r="H85" s="235"/>
+      <c r="I85" s="235"/>
+      <c r="J85" s="235"/>
+      <c r="K85" s="235"/>
+      <c r="L85" s="235"/>
+      <c r="M85" s="235"/>
+      <c r="N85" s="235"/>
+      <c r="O85" s="235"/>
+      <c r="P85" s="235"/>
+      <c r="Q85" s="235"/>
+      <c r="R85" s="235"/>
       <c r="T85" s="66">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="249"/>
-      <c r="B86" s="249"/>
-      <c r="C86" s="249"/>
-      <c r="D86" s="249"/>
-      <c r="E86" s="249"/>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
-      <c r="H86" s="249"/>
-      <c r="I86" s="249"/>
-      <c r="J86" s="249"/>
-      <c r="K86" s="249"/>
-      <c r="L86" s="249"/>
-      <c r="M86" s="249"/>
-      <c r="N86" s="249"/>
-      <c r="O86" s="249"/>
-      <c r="P86" s="249"/>
-      <c r="Q86" s="249"/>
-      <c r="R86" s="249"/>
+      <c r="A86" s="235"/>
+      <c r="B86" s="235"/>
+      <c r="C86" s="235"/>
+      <c r="D86" s="235"/>
+      <c r="E86" s="235"/>
+      <c r="F86" s="235"/>
+      <c r="G86" s="235"/>
+      <c r="H86" s="235"/>
+      <c r="I86" s="235"/>
+      <c r="J86" s="235"/>
+      <c r="K86" s="235"/>
+      <c r="L86" s="235"/>
+      <c r="M86" s="235"/>
+      <c r="N86" s="235"/>
+      <c r="O86" s="235"/>
+      <c r="P86" s="235"/>
+      <c r="Q86" s="235"/>
+      <c r="R86" s="235"/>
       <c r="T86" s="66">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="249"/>
-      <c r="B87" s="249"/>
-      <c r="C87" s="249"/>
-      <c r="D87" s="249"/>
-      <c r="E87" s="249"/>
-      <c r="F87" s="249"/>
-      <c r="G87" s="249"/>
-      <c r="H87" s="249"/>
-      <c r="I87" s="249"/>
-      <c r="J87" s="249"/>
-      <c r="K87" s="249"/>
-      <c r="L87" s="249"/>
-      <c r="M87" s="249"/>
-      <c r="N87" s="249"/>
-      <c r="O87" s="249"/>
-      <c r="P87" s="249"/>
-      <c r="Q87" s="249"/>
-      <c r="R87" s="249"/>
+      <c r="A87" s="235"/>
+      <c r="B87" s="235"/>
+      <c r="C87" s="235"/>
+      <c r="D87" s="235"/>
+      <c r="E87" s="235"/>
+      <c r="F87" s="235"/>
+      <c r="G87" s="235"/>
+      <c r="H87" s="235"/>
+      <c r="I87" s="235"/>
+      <c r="J87" s="235"/>
+      <c r="K87" s="235"/>
+      <c r="L87" s="235"/>
+      <c r="M87" s="235"/>
+      <c r="N87" s="235"/>
+      <c r="O87" s="235"/>
+      <c r="P87" s="235"/>
+      <c r="Q87" s="235"/>
+      <c r="R87" s="235"/>
       <c r="T87" s="66">
         <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="249"/>
-      <c r="B88" s="249"/>
-      <c r="C88" s="249"/>
-      <c r="D88" s="249"/>
-      <c r="E88" s="249"/>
-      <c r="F88" s="249"/>
-      <c r="G88" s="249"/>
-      <c r="H88" s="249"/>
-      <c r="I88" s="249"/>
-      <c r="J88" s="249"/>
-      <c r="K88" s="249"/>
-      <c r="L88" s="249"/>
-      <c r="M88" s="249"/>
-      <c r="N88" s="249"/>
-      <c r="O88" s="249"/>
-      <c r="P88" s="249"/>
-      <c r="Q88" s="249"/>
-      <c r="R88" s="249"/>
+      <c r="A88" s="235"/>
+      <c r="B88" s="235"/>
+      <c r="C88" s="235"/>
+      <c r="D88" s="235"/>
+      <c r="E88" s="235"/>
+      <c r="F88" s="235"/>
+      <c r="G88" s="235"/>
+      <c r="H88" s="235"/>
+      <c r="I88" s="235"/>
+      <c r="J88" s="235"/>
+      <c r="K88" s="235"/>
+      <c r="L88" s="235"/>
+      <c r="M88" s="235"/>
+      <c r="N88" s="235"/>
+      <c r="O88" s="235"/>
+      <c r="P88" s="235"/>
+      <c r="Q88" s="235"/>
+      <c r="R88" s="235"/>
       <c r="T88" s="66">
         <v>18</v>
       </c>
@@ -5190,12 +5185,6 @@
   </sheetData>
   <sheetProtection password="C799" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="A67:R88"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="J64:N64"/>
     <mergeCell ref="J60:N60"/>
     <mergeCell ref="J61:N61"/>
     <mergeCell ref="J62:N62"/>
@@ -5209,6 +5198,12 @@
     <mergeCell ref="J57:N57"/>
     <mergeCell ref="J58:N58"/>
     <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A67:R88"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="J64:N64"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59">
